--- a/xlsx/country_comparison/top_tax_share.xlsx
+++ b/xlsx/country_comparison/top_tax_share.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t xml:space="preserve">Japan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Russia</t>
   </si>
   <si>
     <t xml:space="preserve">Saudi Arabia</t>
@@ -430,13 +433,16 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.683286671200591</v>
+        <v>0.693901017452085</v>
       </c>
       <c r="C2" t="n">
         <v>0.727267133682238</v>
@@ -466,18 +472,21 @@
         <v>0.691563351816597</v>
       </c>
       <c r="L2" t="n">
+        <v>0.75474525024331</v>
+      </c>
+      <c r="M2" t="n">
         <v>0.817345461694808</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>0.622354397487081</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.623345952924007</v>
+        <v>0.642239736998293</v>
       </c>
       <c r="C3" t="n">
         <v>0.663594295554775</v>
@@ -507,9 +516,12 @@
         <v>0.55047661217434</v>
       </c>
       <c r="L3" t="n">
+        <v>0.766098373938282</v>
+      </c>
+      <c r="M3" t="n">
         <v>0.816920760799125</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>0.574114671968279</v>
       </c>
     </row>

--- a/xlsx/country_comparison/top_tax_share.xlsx
+++ b/xlsx/country_comparison/top_tax_share.xlsx
@@ -442,7 +442,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.693901017452085</v>
+        <v>0.693996120467564</v>
       </c>
       <c r="C2" t="n">
         <v>0.727267133682238</v>
@@ -469,16 +469,16 @@
         <v>0.603572620182626</v>
       </c>
       <c r="K2" t="n">
-        <v>0.691563351816597</v>
+        <v>0.691681993781983</v>
       </c>
       <c r="L2" t="n">
-        <v>0.75474525024331</v>
+        <v>0.754855071318372</v>
       </c>
       <c r="M2" t="n">
         <v>0.817345461694808</v>
       </c>
       <c r="N2" t="n">
-        <v>0.622354397487081</v>
+        <v>0.622335501686223</v>
       </c>
     </row>
     <row r="3">
@@ -486,7 +486,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.642239736998293</v>
+        <v>0.641188431291775</v>
       </c>
       <c r="C3" t="n">
         <v>0.663594295554775</v>
@@ -513,16 +513,16 @@
         <v>0.420104611305175</v>
       </c>
       <c r="K3" t="n">
-        <v>0.55047661217434</v>
+        <v>0.550394111458431</v>
       </c>
       <c r="L3" t="n">
-        <v>0.766098373938282</v>
+        <v>0.756622372880961</v>
       </c>
       <c r="M3" t="n">
         <v>0.816920760799125</v>
       </c>
       <c r="N3" t="n">
-        <v>0.574114671968279</v>
+        <v>0.57421952327369</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/top_tax_share.xlsx
+++ b/xlsx/country_comparison/top_tax_share.xlsx
@@ -442,7 +442,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.693996120467564</v>
+        <v>0.693991148793208</v>
       </c>
       <c r="C2" t="n">
         <v>0.727267133682238</v>
@@ -472,7 +472,7 @@
         <v>0.691681993781983</v>
       </c>
       <c r="L2" t="n">
-        <v>0.754855071318372</v>
+        <v>0.754180914635801</v>
       </c>
       <c r="M2" t="n">
         <v>0.817345461694808</v>
@@ -486,7 +486,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.641188431291775</v>
+        <v>0.641501546421187</v>
       </c>
       <c r="C3" t="n">
         <v>0.663594295554775</v>
@@ -516,7 +516,7 @@
         <v>0.550394111458431</v>
       </c>
       <c r="L3" t="n">
-        <v>0.756622372880961</v>
+        <v>0.759131699735939</v>
       </c>
       <c r="M3" t="n">
         <v>0.816920760799125</v>
